--- a/generatedLogs.xlsx
+++ b/generatedLogs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1214,9 +1214,38 @@
         <v>918085074606</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B29" t="str">
+        <v>02:12 am</v>
+      </c>
+      <c r="C29" t="str">
+        <v>MP09GH3989</v>
+      </c>
+      <c r="D29" t="str">
+        <v>indore</v>
+      </c>
+      <c r="E29" t="str">
+        <v>dasai</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5000</v>
+      </c>
+      <c r="G29" t="str">
+        <v>pipe</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <v>918085074606</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I29"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/generatedLogs.xlsx
+++ b/generatedLogs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1243,9 +1243,647 @@
         <v>918085074606</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B30" t="str">
+        <v>02:13 am</v>
+      </c>
+      <c r="C30" t="str">
+        <v>MP09GG1607</v>
+      </c>
+      <c r="D30" t="str">
+        <v>ind</v>
+      </c>
+      <c r="E30" t="str">
+        <v>hotpipliya</v>
+      </c>
+      <c r="F30" t="str">
+        <v>6000</v>
+      </c>
+      <c r="G30" t="str">
+        <v>finish</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B31" t="str">
+        <v>02:40 am</v>
+      </c>
+      <c r="C31" t="str">
+        <v>MP09GH3989</v>
+      </c>
+      <c r="D31" t="str">
+        <v>indore</v>
+      </c>
+      <c r="E31" t="str">
+        <v>dasai</v>
+      </c>
+      <c r="F31" t="str">
+        <v>5000</v>
+      </c>
+      <c r="G31" t="str">
+        <v>pipe</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <v>918085074606</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B32" t="str">
+        <v>02:42 am</v>
+      </c>
+      <c r="C32" t="str">
+        <v>MP09GG1607</v>
+      </c>
+      <c r="D32" t="str">
+        <v>ind</v>
+      </c>
+      <c r="E32" t="str">
+        <v>hotpipliya</v>
+      </c>
+      <c r="F32" t="str">
+        <v>6000</v>
+      </c>
+      <c r="G32" t="str">
+        <v>finish</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B33" t="str">
+        <v>02:46 am</v>
+      </c>
+      <c r="C33" t="str">
+        <v>MP09GH3989</v>
+      </c>
+      <c r="D33" t="str">
+        <v>indore</v>
+      </c>
+      <c r="E33" t="str">
+        <v>dasai</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5000</v>
+      </c>
+      <c r="G33" t="str">
+        <v>pipe</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <v>918085074606</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B34" t="str">
+        <v>02:53 am</v>
+      </c>
+      <c r="C34" t="str">
+        <v>MP09GH3989</v>
+      </c>
+      <c r="D34" t="str">
+        <v>indore</v>
+      </c>
+      <c r="E34" t="str">
+        <v>dasai</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5000</v>
+      </c>
+      <c r="G34" t="str">
+        <v>pipe</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="str">
+        <v>918085074606</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B35" t="str">
+        <v>03:01 am</v>
+      </c>
+      <c r="C35" t="str">
+        <v>MP45ZB4777</v>
+      </c>
+      <c r="D35" t="str">
+        <v>ind</v>
+      </c>
+      <c r="E35" t="str">
+        <v>ratlam</v>
+      </c>
+      <c r="F35" t="str">
+        <v>345000</v>
+      </c>
+      <c r="G35" t="str">
+        <v>finish</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B36" t="str">
+        <v>03:03 am</v>
+      </c>
+      <c r="C36" t="str">
+        <v>MP45ZB4777</v>
+      </c>
+      <c r="D36" t="str">
+        <v>ind</v>
+      </c>
+      <c r="E36" t="str">
+        <v>ratlam</v>
+      </c>
+      <c r="F36" t="str">
+        <v>11000</v>
+      </c>
+      <c r="G36" t="str">
+        <v>finish</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B37" t="str">
+        <v>02:12 pm</v>
+      </c>
+      <c r="C37" t="str">
+        <v>MP45ZB4777</v>
+      </c>
+      <c r="D37" t="str">
+        <v>ind</v>
+      </c>
+      <c r="E37" t="str">
+        <v>ratlam</v>
+      </c>
+      <c r="F37" t="str">
+        <v>11000</v>
+      </c>
+      <c r="G37" t="str">
+        <v>finish</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B38" t="str">
+        <v>02:16 pm</v>
+      </c>
+      <c r="C38" t="str">
+        <v>MP45ZB4777</v>
+      </c>
+      <c r="D38" t="str">
+        <v>ind</v>
+      </c>
+      <c r="E38" t="str">
+        <v>ratlam</v>
+      </c>
+      <c r="F38" t="str">
+        <v>34000</v>
+      </c>
+      <c r="G38" t="str">
+        <v>finish</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B39" t="str">
+        <v>02:27 pm</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B40" t="str">
+        <v>02:30 pm</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B41" t="str">
+        <v>02:33 pm</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="str">
+        <v>919993042680</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B42" t="str">
+        <v>02:39 pm</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B43" t="str">
+        <v>02:41 pm</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B44" t="str">
+        <v>02:43 pm</v>
+      </c>
+      <c r="C44" t="str">
+        <v>MP09GE9250</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Fatehghadh</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Jaora</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10060</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Finish</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B45" t="str">
+        <v>02:44 pm</v>
+      </c>
+      <c r="C45" t="str">
+        <v>BELLGADA</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Ind</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Bpl</v>
+      </c>
+      <c r="F45" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Finish</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B46" t="str">
+        <v>02:54 pm</v>
+      </c>
+      <c r="C46" t="str">
+        <v>MP46ZC5613</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Kukshi</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Pithmpur</v>
+      </c>
+      <c r="F46" t="str">
+        <v>13100</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Scrap</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B47" t="str">
+        <v>02:55 pm</v>
+      </c>
+      <c r="C47" t="str">
+        <v>MP46ZC5616</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Kukshi</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Pithmpur</v>
+      </c>
+      <c r="F47" t="str">
+        <v>131</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Scrap</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B48" t="str">
+        <v>02:55 pm</v>
+      </c>
+      <c r="C48" t="str">
+        <v>MP46ZC5616</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Kukshi</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Pithmpur</v>
+      </c>
+      <c r="F48" t="str">
+        <v>345</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Scrap</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B49" t="str">
+        <v>02:57 pm</v>
+      </c>
+      <c r="C49" t="str">
+        <v>MP13GA8173</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Pith</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Kadodhkala</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10050</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Tmt</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B50" t="str">
+        <v>03:00 pm</v>
+      </c>
+      <c r="C50" t="str">
+        <v>BELLGADA</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v>Ind</v>
+      </c>
+      <c r="F50" t="str">
+        <v>101</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Finish</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="str">
+        <v>918103061906</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>8/8/2025</v>
+      </c>
+      <c r="B51" t="str">
+        <v>03:01 pm</v>
+      </c>
+      <c r="C51" t="str">
+        <v>BELLGADA</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v>Ind</v>
+      </c>
+      <c r="F51" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Finish</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="str">
+        <v>919993042680</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I51"/>
   </ignoredErrors>
 </worksheet>
 </file>